--- a/inputs/HealthRI_v2.0.2.xlsx
+++ b/inputs/HealthRI_v2.0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderharms/Documents/Projects/2026-Metadata_automation/0_Input_Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintenplevier/Documents/GitHub/metadata-automation/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A1AF6-6490-EB45-8502-9FC55250E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68158576-30E7-6249-A266-FEB463E4150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8540" yWindow="-28200" windowWidth="25620" windowHeight="26380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64640" yWindow="-8560" windowWidth="34400" windowHeight="28200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
@@ -2304,27 +2304,6 @@
     <t>sheet_name</t>
   </si>
   <si>
-    <t>ontology_name</t>
-  </si>
-  <si>
-    <t>inherits_from</t>
-  </si>
-  <si>
-    <t>import_classes</t>
-  </si>
-  <si>
-    <t>annotations_ontology</t>
-  </si>
-  <si>
-    <t>annotations_IRI</t>
-  </si>
-  <si>
-    <t>target_ontology_name</t>
-  </si>
-  <si>
-    <t>Sempyro_add_rdf_model</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
@@ -2457,15 +2436,6 @@
     <t>SPDX.Checksum</t>
   </si>
   <si>
-    <t>dash.viewer</t>
-  </si>
-  <si>
-    <t>dash.editor</t>
-  </si>
-  <si>
-    <t>sh:node</t>
-  </si>
-  <si>
     <t>dash:URIViewer</t>
   </si>
   <si>
@@ -2511,25 +2481,10 @@
     <t>hri:PeriodOfTimeShape</t>
   </si>
   <si>
-    <t>rdf_term</t>
-  </si>
-  <si>
-    <t>rdf_type</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Default value</t>
-  </si>
-  <si>
     <t>http://data.europa.eu/eli/reg/2025/327/oj</t>
   </si>
   <si>
     <t>http://publications.europa.eu/resource/authority/data-theme/HEAL</t>
-  </si>
-  <si>
-    <t>Sempyro range</t>
   </si>
   <si>
     <t>dash:TextAreaEditor</t>
@@ -3003,10 +2958,55 @@
     <t>http://data.health-ri.nl/core/p2#</t>
   </si>
   <si>
-    <t>sh:uniqueLang</t>
-  </si>
-  <si>
     <t xml:space="preserve">xsd:nonNegativeInteger </t>
+  </si>
+  <si>
+    <t>class_URI</t>
+  </si>
+  <si>
+    <t>SHACL_dash:viewer</t>
+  </si>
+  <si>
+    <t>SHACL_dash:editor</t>
+  </si>
+  <si>
+    <t>SHACL_sh:node</t>
+  </si>
+  <si>
+    <t>SHACL_pattern</t>
+  </si>
+  <si>
+    <t>SHACL_default_value</t>
+  </si>
+  <si>
+    <t>SeMPyRO_rdf_term</t>
+  </si>
+  <si>
+    <t>SeMPyRO_rdf_type</t>
+  </si>
+  <si>
+    <t>SeMPyRO_range</t>
+  </si>
+  <si>
+    <t>SHACL_target_ontology_name</t>
+  </si>
+  <si>
+    <t>SeMPyRO_inherits_from</t>
+  </si>
+  <si>
+    <t>SeMPyRO_import_classes</t>
+  </si>
+  <si>
+    <t>SeMPyRO_annotations_ontology</t>
+  </si>
+  <si>
+    <t>SeMPyRO_annotations_IRI</t>
+  </si>
+  <si>
+    <t>SeMPyRO_add_rdf_model</t>
+  </si>
+  <si>
+    <t>SHACL_sh:uniqueLang</t>
   </si>
 </sst>
 </file>
@@ -3352,7 +3352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3424,6 +3424,12 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3448,7 +3454,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4091,8 +4097,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -4103,20 +4117,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -4130,6 +4132,12 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -4137,36 +4145,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="205">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -4189,11 +4167,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4299,11 +4307,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4319,51 +4327,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4422,8 +4390,58 @@
         <color rgb="FF9C5700"/>
       </font>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4449,11 +4467,31 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4479,51 +4517,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4569,11 +4567,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4589,11 +4587,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4609,6 +4607,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4619,11 +4627,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color theme="1"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7841,9 +7849,9 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7909,31 +7917,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="U1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -7972,19 +7980,19 @@
       </c>
       <c r="L2" s="107"/>
       <c r="M2" s="220" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="N2" s="220" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -8023,19 +8031,19 @@
       </c>
       <c r="L3" s="130"/>
       <c r="M3" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N3" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -8074,19 +8082,19 @@
       </c>
       <c r="L4" s="107"/>
       <c r="M4" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N4" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -8125,19 +8133,19 @@
       </c>
       <c r="L5" s="130"/>
       <c r="M5" s="220" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N5" s="220" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -8176,22 +8184,22 @@
       </c>
       <c r="L6" s="107"/>
       <c r="M6" s="220" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N6" s="220" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -8230,19 +8238,19 @@
       </c>
       <c r="L7" s="130"/>
       <c r="M7" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N7" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -8281,22 +8289,22 @@
       </c>
       <c r="L8" s="107"/>
       <c r="M8" s="220" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N8" s="220" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -8335,19 +8343,19 @@
       </c>
       <c r="L9" s="130"/>
       <c r="M9" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N9" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -8386,19 +8394,19 @@
       </c>
       <c r="L10" s="107"/>
       <c r="M10" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N10" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="80" x14ac:dyDescent="0.2">
@@ -8437,19 +8445,19 @@
       </c>
       <c r="L11" s="130"/>
       <c r="M11" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N11" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -8488,19 +8496,19 @@
       </c>
       <c r="L12" s="107"/>
       <c r="M12" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N12" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="80" x14ac:dyDescent="0.2">
@@ -8539,19 +8547,19 @@
       </c>
       <c r="L13" s="130"/>
       <c r="M13" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N13" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="80" x14ac:dyDescent="0.2">
@@ -8590,19 +8598,19 @@
       </c>
       <c r="L14" s="107"/>
       <c r="M14" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N14" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="112" x14ac:dyDescent="0.2">
@@ -8641,19 +8649,19 @@
       </c>
       <c r="L15" s="130"/>
       <c r="M15" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N15" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -8690,25 +8698,25 @@
       </c>
       <c r="L16" s="107"/>
       <c r="M16" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="R16" s="32"/>
       <c r="S16" s="32" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="T16" s="32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -8747,19 +8755,19 @@
       </c>
       <c r="L17" s="130"/>
       <c r="M17" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N17" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -8798,25 +8806,25 @@
       </c>
       <c r="L18" s="107"/>
       <c r="M18" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="32" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="T18" s="32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -8851,22 +8859,22 @@
       <c r="K19" s="104"/>
       <c r="L19" s="130"/>
       <c r="M19" s="220" t="s">
+        <v>714</v>
+      </c>
+      <c r="N19" s="220" t="s">
+        <v>712</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="N19" s="220" t="s">
-        <v>722</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="S19" s="2" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="144" x14ac:dyDescent="0.2">
@@ -8905,19 +8913,19 @@
       </c>
       <c r="L20" s="107"/>
       <c r="M20" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N20" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -8931,7 +8939,7 @@
         <v>243</v>
       </c>
       <c r="D21" s="221" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="E21" s="81" t="s">
         <v>450</v>
@@ -8956,19 +8964,19 @@
       </c>
       <c r="L21" s="130"/>
       <c r="M21" s="220" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N21" s="220" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -9005,19 +9013,19 @@
       <c r="K22" s="105"/>
       <c r="L22" s="107"/>
       <c r="M22" s="220" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N22" s="220" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>256</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -9056,22 +9064,22 @@
       </c>
       <c r="L23" s="130"/>
       <c r="M23" s="220" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N23" s="220" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P23" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -9409,7 +9417,6 @@
       <c r="K57" s="99"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J23" xr:uid="{D216357D-42A4-49FA-9AEC-3DDC66FD6459}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
     <sortCondition ref="A2:A23"/>
   </sortState>
@@ -9563,31 +9570,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="U1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -9626,19 +9633,19 @@
       </c>
       <c r="L2" s="130"/>
       <c r="M2" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -9677,22 +9684,22 @@
       </c>
       <c r="L3" s="107"/>
       <c r="M3" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -9731,22 +9738,22 @@
       </c>
       <c r="L4" s="130"/>
       <c r="M4" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P4" s="32" t="b">
         <v>1</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -9783,19 +9790,19 @@
       <c r="K5" s="105"/>
       <c r="L5" s="107"/>
       <c r="M5" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -9823,30 +9830,30 @@
       <c r="H6" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="229" t="s">
+      <c r="I6" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="226" t="s">
+      <c r="J6" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="230" t="s">
+      <c r="K6" s="236" t="s">
         <v>462</v>
       </c>
-      <c r="L6" s="229"/>
+      <c r="L6" s="235"/>
       <c r="M6" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -9860,10 +9867,10 @@
       <c r="F7" s="231"/>
       <c r="G7" s="231"/>
       <c r="H7" s="231"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="226"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="229"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="235"/>
     </row>
     <row r="8" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="232"/>
@@ -9876,10 +9883,10 @@
       <c r="F8" s="231"/>
       <c r="G8" s="231"/>
       <c r="H8" s="231"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="229"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="232"/>
@@ -9892,10 +9899,10 @@
       <c r="F9" s="231"/>
       <c r="G9" s="231"/>
       <c r="H9" s="231"/>
-      <c r="I9" s="229"/>
-      <c r="J9" s="226"/>
-      <c r="K9" s="230"/>
-      <c r="L9" s="229"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="225"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="232"/>
@@ -9908,10 +9915,10 @@
       <c r="F10" s="231"/>
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="I10" s="229"/>
-      <c r="J10" s="226"/>
-      <c r="K10" s="230"/>
-      <c r="L10" s="229"/>
+      <c r="I10" s="235"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="122" t="s">
@@ -9949,22 +9956,22 @@
       </c>
       <c r="L11" s="107"/>
       <c r="M11" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -10003,22 +10010,22 @@
       </c>
       <c r="L12" s="130"/>
       <c r="M12" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="T12" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U12" s="32" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -10057,22 +10064,22 @@
       </c>
       <c r="L13" s="107"/>
       <c r="M13" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -10111,22 +10118,22 @@
       </c>
       <c r="L14" s="130"/>
       <c r="M14" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="O14" s="32" t="s">
         <v>724</v>
       </c>
-      <c r="N14" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>734</v>
-      </c>
       <c r="S14" s="32" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="T14" s="32" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -10165,22 +10172,22 @@
       </c>
       <c r="L15" s="107"/>
       <c r="M15" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P15" s="32" t="b">
         <v>1</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -10306,17 +10313,17 @@
   </sheetData>
   <autoFilter ref="A1:L15" xr:uid="{FBE7E653-2382-46E4-9C76-9C694EDC9195}"/>
   <mergeCells count="11">
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="F6:F10"/>
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6 F11:F15">
     <cfRule type="cellIs" dxfId="127" priority="7" operator="equal">
@@ -10470,31 +10477,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="U1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="84" x14ac:dyDescent="0.2">
@@ -10533,19 +10540,19 @@
       </c>
       <c r="L2" s="189"/>
       <c r="M2" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S2" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="T2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U2" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -10580,19 +10587,19 @@
       <c r="K3" s="106"/>
       <c r="L3" s="130"/>
       <c r="M3" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N3" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S3" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="T3" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U3" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10629,19 +10636,19 @@
       <c r="K4" s="107"/>
       <c r="L4" s="107"/>
       <c r="M4" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N4" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S4" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="T4" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U4" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="80" x14ac:dyDescent="0.2">
@@ -10678,22 +10685,22 @@
       <c r="K5" s="106"/>
       <c r="L5" s="130"/>
       <c r="M5" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N5" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O5" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="S5" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="T5" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U5" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -10730,22 +10737,22 @@
       <c r="K6" s="106"/>
       <c r="L6" s="107"/>
       <c r="M6" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N6" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O6" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="S6" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="T6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U6" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -10780,19 +10787,19 @@
       <c r="K7" s="107"/>
       <c r="L7" s="130"/>
       <c r="M7" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N7" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S7" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="T7" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U7" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="42" x14ac:dyDescent="0.2">
@@ -10831,22 +10838,22 @@
       </c>
       <c r="L8" s="107"/>
       <c r="M8" s="107" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N8" s="107" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="T8" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U8" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -10885,19 +10892,19 @@
       </c>
       <c r="L9" s="130"/>
       <c r="M9" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N9" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S9" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="T9" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U9" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -10936,19 +10943,19 @@
       </c>
       <c r="L10" s="107"/>
       <c r="M10" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N10" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S10" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="T10" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U10" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -10983,19 +10990,19 @@
       <c r="K11" s="107"/>
       <c r="L11" s="130"/>
       <c r="M11" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N11" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S11" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="T11" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U11" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -11030,19 +11037,19 @@
       <c r="K12" s="106"/>
       <c r="L12" s="107"/>
       <c r="M12" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N12" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S12" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="T12" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U12" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -11079,19 +11086,19 @@
       <c r="K13" s="106"/>
       <c r="L13" s="130"/>
       <c r="M13" s="107" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N13" s="107" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S13" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="T13" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U13" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -11126,19 +11133,19 @@
       <c r="K14" s="106"/>
       <c r="L14" s="107"/>
       <c r="M14" s="107" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N14" s="107" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S14" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="T14" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U14" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -11175,19 +11182,19 @@
       <c r="K15" s="106"/>
       <c r="L15" s="130"/>
       <c r="M15" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N15" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S15" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="T15" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U15" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -11224,19 +11231,19 @@
       <c r="K16" s="106"/>
       <c r="L16" s="107"/>
       <c r="M16" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N16" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S16" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="T16" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U16" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -11275,19 +11282,19 @@
       </c>
       <c r="L17" s="130"/>
       <c r="M17" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N17" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S17" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="T17" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U17" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -11324,22 +11331,22 @@
       <c r="K18" s="106"/>
       <c r="L18" s="107"/>
       <c r="M18" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N18" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="S18" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="T18" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U18" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -11374,22 +11381,22 @@
       <c r="K19" s="106"/>
       <c r="L19" s="130"/>
       <c r="M19" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N19" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O19" t="s">
+        <v>719</v>
+      </c>
+      <c r="S19" t="s">
+        <v>758</v>
+      </c>
+      <c r="T19" t="s">
         <v>729</v>
       </c>
-      <c r="S19" t="s">
-        <v>773</v>
-      </c>
-      <c r="T19" t="s">
-        <v>744</v>
-      </c>
       <c r="U19" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -11426,22 +11433,22 @@
       <c r="K20" s="107"/>
       <c r="L20" s="107"/>
       <c r="M20" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N20" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O20" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="S20" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="T20" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U20" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -11464,7 +11471,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="129" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="H21" s="128" t="s">
         <v>29</v>
@@ -11480,19 +11487,19 @@
       </c>
       <c r="L21" s="130"/>
       <c r="M21" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N21" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S21" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="T21" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U21" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -11529,19 +11536,19 @@
       <c r="K22" s="106"/>
       <c r="L22" s="107"/>
       <c r="M22" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N22" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S22" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="T22" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U22" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -11580,22 +11587,22 @@
       </c>
       <c r="L23" s="198"/>
       <c r="M23" s="107" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N23" s="107" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="T23" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U23" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -12080,8 +12087,8 @@
   </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12089,6 +12096,7 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="11" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="206" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -12129,28 +12137,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="80" x14ac:dyDescent="0.2">
@@ -12187,19 +12195,19 @@
       <c r="K2" s="159"/>
       <c r="L2" s="189"/>
       <c r="M2" s="159" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N2" s="159" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="R2" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="S2" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="T2" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="32" x14ac:dyDescent="0.2">
@@ -12234,19 +12242,19 @@
       <c r="K3" s="170"/>
       <c r="L3" s="198"/>
       <c r="M3" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N3" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="R3" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="S3" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="T3" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -12370,28 +12378,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -12424,22 +12432,22 @@
         <v>76</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -12474,22 +12482,22 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="2" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -13129,28 +13137,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="48" x14ac:dyDescent="0.2">
@@ -13186,22 +13194,22 @@
       </c>
       <c r="K2" s="2"/>
       <c r="M2" s="84" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N2" s="84" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O2" s="84" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="R2" s="84" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="S2" s="84" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T2" s="84" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="96" x14ac:dyDescent="0.2">
@@ -13238,19 +13246,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="121"/>
       <c r="M3" s="84" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="N3" s="84" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R3" s="84" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="S3" s="84" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T3" s="84" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -13365,28 +13373,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="160" x14ac:dyDescent="0.2">
@@ -13422,19 +13430,19 @@
       </c>
       <c r="K2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R2" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="S2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="48" x14ac:dyDescent="0.2">
@@ -13471,19 +13479,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="113"/>
       <c r="M3" s="2" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R3" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="S3" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T3" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13603,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="112" x14ac:dyDescent="0.2">
@@ -13652,19 +13660,19 @@
       </c>
       <c r="K2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R2" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="S2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -13701,19 +13709,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="113"/>
       <c r="M3" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N3" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R3" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="S3" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T3" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -14367,42 +14375,42 @@
     <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
-      <formula>"Recommended"</formula>
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+      <formula>"Conditional"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
-      <formula>"Conditional"</formula>
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+      <formula>"Recommended"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E28">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
-      <formula>"Optional"</formula>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>"Conditional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
-      <formula>"Conditional"</formula>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>"Optional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
       <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
-      <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7 E8">
@@ -14411,28 +14419,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F38">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
-      <formula>"Not added"</formula>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>"Optional"</formula>
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+      <formula>"Conditional"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
-      <formula>"Mandatory"</formula>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
-      <formula>"Conditional"</formula>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
       <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
-      <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H27 H36:H38">
@@ -14444,17 +14452,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 F1:F7">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
-      <formula>"Optional"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+      <formula>"Conditional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
-      <formula>"Conditional"</formula>
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>"Optional"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -14543,28 +14551,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -14599,19 +14607,19 @@
         <v>76</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14646,19 +14654,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="2" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>596</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -15165,14 +15173,14 @@
     <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
-      <formula>"Recommended"</formula>
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+      <formula>"Conditional"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
-      <formula>"Conditional"</formula>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+      <formula>"Recommended"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
@@ -15212,25 +15220,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H9 H11:H15 H17:H25 H27:H41 H50:H52">
-    <cfRule type="cellIs" dxfId="5" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="greaterThan">
       <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
-      <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 F1:F52">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Optional"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Conditional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"Conditional"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Optional"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -15486,7 +15494,7 @@
         <v>646</v>
       </c>
       <c r="B26" s="217" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -15571,10 +15579,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="B37" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -15582,7 +15590,7 @@
         <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -15628,19 +15636,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D802131-0BDC-E74C-8D0F-4E83C57B0C6F}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="116" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -15648,313 +15658,321 @@
         <v>665</v>
       </c>
       <c r="B1" t="s">
-        <v>666</v>
+        <v>884</v>
       </c>
       <c r="C1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D1" s="218" t="s">
-        <v>668</v>
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>893</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>669</v>
+        <v>894</v>
+      </c>
+      <c r="F1" s="218" t="s">
+        <v>895</v>
       </c>
       <c r="G1" t="s">
-        <v>670</v>
+        <v>896</v>
       </c>
       <c r="H1" t="s">
-        <v>671</v>
-      </c>
-      <c r="I1" t="s">
-        <v>672</v>
+        <v>897</v>
+      </c>
+      <c r="I1" s="222" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="B2" t="s">
-        <v>894</v>
-      </c>
-      <c r="C2" t="s">
-        <v>895</v>
-      </c>
-      <c r="F2" t="s">
-        <v>702</v>
+        <v>879</v>
+      </c>
+      <c r="D2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E2" t="s">
+        <v>880</v>
       </c>
       <c r="G2" t="s">
-        <v>896</v>
+        <v>695</v>
       </c>
       <c r="H2" t="s">
-        <v>895</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="I2" s="222"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B3" t="s">
-        <v>686</v>
-      </c>
-      <c r="C3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>702</v>
+      <c r="E3" t="s">
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="I3" s="222"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B4" t="s">
-        <v>880</v>
-      </c>
-      <c r="C4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D4" t="s">
         <v>291</v>
       </c>
-      <c r="F4" t="s">
-        <v>702</v>
+      <c r="E4" t="s">
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H4" t="s">
-        <v>291</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B5" t="s">
-        <v>687</v>
-      </c>
-      <c r="C5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="217" t="s">
-        <v>703</v>
-      </c>
-      <c r="G5" t="s">
-        <v>698</v>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="223" t="s">
+        <v>696</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="I5" s="222"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B6" t="s">
-        <v>688</v>
-      </c>
-      <c r="C6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
-        <v>704</v>
+      <c r="E6" t="s">
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>697</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B7" t="s">
-        <v>689</v>
-      </c>
-      <c r="C7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>702</v>
+      <c r="E7" t="s">
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B8" t="s">
-        <v>690</v>
-      </c>
-      <c r="C8" t="s">
+        <v>683</v>
+      </c>
+      <c r="D8" t="s">
         <v>125</v>
       </c>
-      <c r="F8" t="s">
-        <v>702</v>
+      <c r="E8" t="s">
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="I8" s="222"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D9" t="s">
         <v>327</v>
       </c>
-      <c r="F9" t="s">
-        <v>702</v>
+      <c r="E9" t="s">
+        <v>327</v>
       </c>
       <c r="G9" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="I9" s="222"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B10" t="s">
-        <v>878</v>
-      </c>
-      <c r="F10" t="s">
-        <v>707</v>
+        <v>863</v>
+      </c>
+      <c r="D10" t="s">
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" t="b">
+        <v>701</v>
+      </c>
+      <c r="I10" s="222" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B11" t="s">
-        <v>692</v>
-      </c>
-      <c r="F11" t="s">
-        <v>709</v>
+        <v>685</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
-      </c>
-      <c r="I11" t="b">
+        <v>703</v>
+      </c>
+      <c r="I11" s="222" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B12" t="s">
-        <v>693</v>
-      </c>
-      <c r="F12" t="s">
-        <v>711</v>
+        <v>686</v>
+      </c>
+      <c r="D12" t="s">
+        <v>208</v>
       </c>
       <c r="G12" t="s">
-        <v>879</v>
+        <v>704</v>
       </c>
       <c r="H12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" t="b">
+        <v>864</v>
+      </c>
+      <c r="I12" s="222" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B13" t="s">
-        <v>694</v>
-      </c>
-      <c r="F13" t="s">
-        <v>702</v>
+        <v>687</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
       </c>
       <c r="G13" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="H13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" t="b">
+        <v>705</v>
+      </c>
+      <c r="I13" s="222" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B14" t="s">
-        <v>695</v>
-      </c>
-      <c r="F14" t="s">
-        <v>713</v>
+        <v>688</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="H14" t="s">
-        <v>219</v>
-      </c>
-      <c r="I14" t="b">
+        <v>707</v>
+      </c>
+      <c r="I14" s="222" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B15" t="s">
-        <v>696</v>
-      </c>
-      <c r="F15" t="s">
-        <v>715</v>
+        <v>689</v>
+      </c>
+      <c r="D15" t="s">
+        <v>400</v>
       </c>
       <c r="G15" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="H15" t="s">
-        <v>400</v>
-      </c>
-      <c r="I15" t="b">
+        <v>709</v>
+      </c>
+      <c r="I15" s="222" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{5D4082C3-5C5E-E144-B9D0-713524E86F71}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{5D4082C3-5C5E-E144-B9D0-713524E86F71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15968,9 +15986,9 @@
   </sheetPr>
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16034,28 +16052,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16230,74 +16248,74 @@
       <c r="L13" s="130"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="223"/>
-      <c r="B14" s="224"/>
-      <c r="C14" s="223"/>
+      <c r="A14" s="227"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="227"/>
       <c r="D14" s="154"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="222"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="222"/>
-      <c r="I14" s="226"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="227"/>
-      <c r="L14" s="226"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="225"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="223"/>
-      <c r="B15" s="224"/>
-      <c r="C15" s="223"/>
+      <c r="A15" s="227"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="227"/>
       <c r="D15" s="155"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="226"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="225"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="223"/>
-      <c r="B16" s="224"/>
-      <c r="C16" s="223"/>
+      <c r="A16" s="227"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="227"/>
       <c r="D16" s="155"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="226"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="225"/>
+      <c r="J16" s="225"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="225"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="223"/>
-      <c r="B17" s="224"/>
-      <c r="C17" s="223"/>
+      <c r="A17" s="227"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="227"/>
       <c r="D17" s="155"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="226"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="225"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="225"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="223"/>
+      <c r="A18" s="227"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="227"/>
       <c r="D18" s="155"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="226"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="225"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="126"/>
@@ -16805,17 +16823,17 @@
   </sheetData>
   <autoFilter ref="A1:J53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="F14:F18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F14 F19:F53">
     <cfRule type="cellIs" dxfId="204" priority="8" operator="equal">
@@ -16903,9 +16921,9 @@
   </sheetPr>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16969,31 +16987,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="U1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17032,19 +17050,19 @@
       </c>
       <c r="L2" s="107"/>
       <c r="M2" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="80" x14ac:dyDescent="0.2">
@@ -17067,7 +17085,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="129" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="H3" s="128" t="s">
         <v>29</v>
@@ -17083,19 +17101,19 @@
       </c>
       <c r="L3" s="130"/>
       <c r="M3" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="118" customFormat="1" ht="144" x14ac:dyDescent="0.2">
@@ -17134,22 +17152,22 @@
       </c>
       <c r="L4" s="107"/>
       <c r="M4" s="118" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N4" s="118" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R4" s="118" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -17188,19 +17206,19 @@
       </c>
       <c r="L5" s="130"/>
       <c r="M5" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -17239,19 +17257,19 @@
       </c>
       <c r="L6" s="107"/>
       <c r="M6" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -17290,19 +17308,19 @@
       </c>
       <c r="L7" s="130"/>
       <c r="M7" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17341,22 +17359,22 @@
       </c>
       <c r="L8" s="107"/>
       <c r="M8" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -17395,22 +17413,22 @@
       </c>
       <c r="L9" s="130"/>
       <c r="M9" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -17449,22 +17467,22 @@
       </c>
       <c r="L10" s="107"/>
       <c r="M10" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P10" s="32" t="b">
         <v>1</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="210" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -17487,7 +17505,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="128" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="H11" s="128" t="s">
         <v>29</v>
@@ -17501,19 +17519,19 @@
       <c r="K11" s="131"/>
       <c r="L11" s="130"/>
       <c r="M11" s="210" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N11" s="210" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S11" s="210" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="T11" s="210" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U11" s="210" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -17552,19 +17570,19 @@
       </c>
       <c r="L12" s="107"/>
       <c r="M12" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="T12" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U12" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17603,133 +17621,133 @@
       </c>
       <c r="L13" s="130"/>
       <c r="M13" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="223" t="s">
+      <c r="A14" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="223" t="s">
+      <c r="C14" s="227" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="229" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="222" t="s">
+      <c r="F14" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="222" t="s">
+      <c r="G14" s="224" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="222" t="s">
+      <c r="H14" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="226" t="s">
+      <c r="I14" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="226" t="s">
+      <c r="J14" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="227"/>
-      <c r="L14" s="226"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="225"/>
       <c r="M14" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="T14" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="223"/>
-      <c r="B15" s="224"/>
-      <c r="C15" s="223"/>
+      <c r="A15" s="227"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="227"/>
       <c r="D15" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="225"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="226"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="225"/>
     </row>
     <row r="16" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="223"/>
-      <c r="B16" s="224"/>
-      <c r="C16" s="223"/>
+      <c r="A16" s="227"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="227"/>
       <c r="D16" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="225"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="226"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="225"/>
+      <c r="J16" s="225"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="225"/>
     </row>
     <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="223"/>
-      <c r="B17" s="224"/>
-      <c r="C17" s="223"/>
+      <c r="A17" s="227"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="227"/>
       <c r="D17" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="225"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="226"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="225"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="225"/>
     </row>
     <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="223"/>
+      <c r="A18" s="227"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="227"/>
       <c r="D18" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="225"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="226"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="225"/>
     </row>
     <row r="19" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="126" t="s">
@@ -17751,7 +17769,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="128" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="H19" s="128" t="s">
         <v>29</v>
@@ -17767,19 +17785,19 @@
       </c>
       <c r="L19" s="130"/>
       <c r="M19" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="96" x14ac:dyDescent="0.2">
@@ -17818,19 +17836,19 @@
       </c>
       <c r="L20" s="107"/>
       <c r="M20" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="96" x14ac:dyDescent="0.2">
@@ -17869,19 +17887,19 @@
       </c>
       <c r="L21" s="130"/>
       <c r="M21" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -17904,7 +17922,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="125" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="H22" s="125" t="s">
         <v>29</v>
@@ -17918,19 +17936,19 @@
       <c r="K22" s="106"/>
       <c r="L22" s="107"/>
       <c r="M22" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="T22" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -17969,19 +17987,19 @@
       </c>
       <c r="L23" s="130"/>
       <c r="M23" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="T23" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -18020,19 +18038,19 @@
       </c>
       <c r="L24" s="107"/>
       <c r="M24" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N24" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="T24" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -18071,19 +18089,19 @@
       </c>
       <c r="L25" s="130"/>
       <c r="M25" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="T25" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="128" x14ac:dyDescent="0.2">
@@ -18106,7 +18124,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="125" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="H26" s="125" t="s">
         <v>29</v>
@@ -18122,19 +18140,19 @@
       </c>
       <c r="L26" s="107"/>
       <c r="M26" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="T26" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -18157,7 +18175,7 @@
         <v>27</v>
       </c>
       <c r="G27" s="128" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="H27" s="128" t="s">
         <v>93</v>
@@ -18173,19 +18191,19 @@
       </c>
       <c r="L27" s="130"/>
       <c r="M27" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="T27" s="32" t="s">
         <v>394</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -18208,7 +18226,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="125" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="H28" s="125" t="s">
         <v>93</v>
@@ -18224,19 +18242,19 @@
       </c>
       <c r="L28" s="107"/>
       <c r="M28" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S28" s="32" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="T28" s="32" t="s">
         <v>394</v>
       </c>
       <c r="U28" s="32" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -18275,22 +18293,22 @@
       </c>
       <c r="L29" s="130"/>
       <c r="M29" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q29" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="S29" s="32" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="T29" s="32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -18329,19 +18347,19 @@
       </c>
       <c r="L30" s="107"/>
       <c r="M30" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S30" s="32" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="T30" s="32" t="s">
         <v>394</v>
       </c>
       <c r="U30" s="32" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -18380,19 +18398,19 @@
       </c>
       <c r="L31" s="130"/>
       <c r="M31" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="T31" s="32" t="s">
         <v>394</v>
       </c>
       <c r="U31" s="32" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -18431,22 +18449,22 @@
       </c>
       <c r="L32" s="107"/>
       <c r="M32" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O32" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="T32" s="32" t="s">
         <v>729</v>
       </c>
-      <c r="S32" s="32" t="s">
-        <v>773</v>
-      </c>
-      <c r="T32" s="32" t="s">
-        <v>744</v>
-      </c>
       <c r="U32" s="32" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -18469,7 +18487,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="128" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="H33" s="128" t="s">
         <v>29</v>
@@ -18485,19 +18503,19 @@
       </c>
       <c r="L33" s="130"/>
       <c r="M33" s="32" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S33" s="32" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="T33" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U33" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -18536,19 +18554,19 @@
       </c>
       <c r="L34" s="107"/>
       <c r="M34" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S34" s="32" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="T34" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U34" s="32" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="112" x14ac:dyDescent="0.2">
@@ -18587,22 +18605,22 @@
       </c>
       <c r="L35" s="130"/>
       <c r="M35" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="T35" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U35" s="32" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -18625,7 +18643,7 @@
         <v>27</v>
       </c>
       <c r="G36" s="125" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="H36" s="125" t="s">
         <v>29</v>
@@ -18641,19 +18659,19 @@
       </c>
       <c r="L36" s="107"/>
       <c r="M36" s="32" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="N36" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S36" s="32" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="T36" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U36" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="192" x14ac:dyDescent="0.2">
@@ -18690,22 +18708,22 @@
       <c r="K37" s="131"/>
       <c r="L37" s="130"/>
       <c r="M37" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="S37" s="32" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="T37" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U37" s="32" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -18744,22 +18762,22 @@
       </c>
       <c r="L38" s="107"/>
       <c r="M38" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N38" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="O38" s="32" t="s">
         <v>722</v>
       </c>
-      <c r="O38" s="32" t="s">
-        <v>732</v>
-      </c>
       <c r="S38" s="32" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="T38" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U38" s="32" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -18796,22 +18814,22 @@
       <c r="K39" s="131"/>
       <c r="L39" s="130"/>
       <c r="M39" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="S39" s="32" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="T39" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -18850,22 +18868,22 @@
       </c>
       <c r="L40" s="107"/>
       <c r="M40" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N40" s="32" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q40" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="S40" s="32" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="T40" s="32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U40" s="32" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -18904,22 +18922,22 @@
       </c>
       <c r="L41" s="130"/>
       <c r="M41" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="O41" s="32" t="s">
         <v>724</v>
       </c>
-      <c r="N41" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="O41" s="32" t="s">
-        <v>734</v>
-      </c>
       <c r="S41" s="32" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="T41" s="32" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="U41" s="32" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -18942,7 +18960,7 @@
         <v>27</v>
       </c>
       <c r="G42" s="125" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="H42" s="125" t="s">
         <v>29</v>
@@ -18958,19 +18976,19 @@
       </c>
       <c r="L42" s="107"/>
       <c r="M42" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N42" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S42" s="32" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="T42" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U42" s="32" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -18993,7 +19011,7 @@
         <v>27</v>
       </c>
       <c r="G43" s="128" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="H43" s="128" t="s">
         <v>29</v>
@@ -19009,19 +19027,19 @@
       </c>
       <c r="L43" s="130"/>
       <c r="M43" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S43" s="32" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="T43" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U43" s="32" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -19060,19 +19078,19 @@
       </c>
       <c r="L44" s="107"/>
       <c r="M44" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N44" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S44" s="32" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="T44" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U44" s="32" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -19111,22 +19129,22 @@
       </c>
       <c r="L45" s="130"/>
       <c r="M45" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="N45" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="O45" s="32" t="s">
         <v>724</v>
       </c>
-      <c r="N45" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="O45" s="32" t="s">
-        <v>734</v>
-      </c>
       <c r="S45" s="32" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="T45" s="32" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="U45" s="32" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -19165,19 +19183,19 @@
       </c>
       <c r="L46" s="107"/>
       <c r="M46" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N46" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S46" s="32" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="T46" s="32" t="s">
         <v>256</v>
       </c>
       <c r="U46" s="32" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19216,22 +19234,22 @@
       </c>
       <c r="L47" s="130"/>
       <c r="M47" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R47" s="218" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="S47" s="32" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="T47" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U47" s="32" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -19270,22 +19288,22 @@
       </c>
       <c r="L48" s="107"/>
       <c r="M48" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P48" s="32" t="b">
         <v>1</v>
       </c>
       <c r="S48" s="32" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="T48" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U48" s="32" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -19324,23 +19342,23 @@
       </c>
       <c r="L49" s="130"/>
       <c r="M49" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="O49" s="119"/>
       <c r="P49" s="119"/>
       <c r="Q49" s="119"/>
       <c r="R49" s="119"/>
       <c r="S49" s="32" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="T49" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U49" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -19379,19 +19397,19 @@
       </c>
       <c r="L50" s="107"/>
       <c r="M50" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="S50" s="32" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="T50" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U50" s="32" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -19430,22 +19448,22 @@
       </c>
       <c r="L51" s="130"/>
       <c r="M51" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P51" s="32" t="b">
         <v>1</v>
       </c>
       <c r="S51" s="32" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="T51" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U51" s="32" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19466,7 +19484,7 @@
         <v>27</v>
       </c>
       <c r="G52" s="125" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="H52" s="125" t="s">
         <v>29</v>
@@ -19480,19 +19498,19 @@
       <c r="K52" s="106"/>
       <c r="L52" s="107"/>
       <c r="M52" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S52" s="32" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="T52" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U52" s="32" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="119" customFormat="1" x14ac:dyDescent="0.2">
@@ -19524,17 +19542,17 @@
     <sortCondition ref="A2:A53"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="E14:E18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
     <mergeCell ref="J14:J18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E14:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F14 F19:F53">
     <cfRule type="cellIs" dxfId="190" priority="8" operator="equal">
@@ -19639,7 +19657,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19698,31 +19716,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="U1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -19759,19 +19777,19 @@
       </c>
       <c r="L2" s="107"/>
       <c r="M2" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -19794,7 +19812,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="129" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="H3" s="128" t="s">
         <v>29</v>
@@ -19808,19 +19826,19 @@
       <c r="K3" s="131"/>
       <c r="L3" s="130"/>
       <c r="M3" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19859,22 +19877,22 @@
       </c>
       <c r="L4" s="107"/>
       <c r="M4" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -19911,22 +19929,22 @@
       </c>
       <c r="L5" s="130"/>
       <c r="M5" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -19963,13 +19981,13 @@
       <c r="K6" s="138"/>
       <c r="L6" s="107"/>
       <c r="S6" s="32" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -20008,159 +20026,159 @@
       </c>
       <c r="L7" s="130"/>
       <c r="M7" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="P7" s="32" t="b">
         <v>1</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="228" t="s">
+      <c r="B8" s="230" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="227" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="225" t="s">
+      <c r="E8" s="229" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="222" t="s">
+      <c r="F8" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="222" t="s">
+      <c r="G8" s="224" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="222" t="s">
+      <c r="H8" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="226" t="s">
+      <c r="I8" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="226" t="s">
+      <c r="J8" s="225" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="138"/>
-      <c r="L8" s="226"/>
+      <c r="L8" s="225"/>
       <c r="M8" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="223"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="223"/>
+      <c r="A9" s="227"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="227"/>
       <c r="D9" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="226"/>
-      <c r="J9" s="226"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="225"/>
+      <c r="J9" s="225"/>
       <c r="K9" s="138"/>
-      <c r="L9" s="226"/>
+      <c r="L9" s="225"/>
       <c r="M9" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="223"/>
-      <c r="B10" s="228"/>
-      <c r="C10" s="223"/>
+      <c r="A10" s="227"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="227"/>
       <c r="D10" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="225"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="226"/>
-      <c r="J10" s="226"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="225"/>
       <c r="K10" s="138"/>
-      <c r="L10" s="226"/>
+      <c r="L10" s="225"/>
       <c r="M10" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="223"/>
-      <c r="B11" s="228"/>
-      <c r="C11" s="223"/>
+      <c r="A11" s="227"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="227"/>
       <c r="D11" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="225"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="226"/>
-      <c r="J11" s="226"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="225"/>
       <c r="K11" s="156"/>
-      <c r="L11" s="226"/>
+      <c r="L11" s="225"/>
       <c r="M11" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="223"/>
-      <c r="B12" s="228"/>
-      <c r="C12" s="223"/>
+      <c r="A12" s="227"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="227"/>
       <c r="D12" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="225"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="226"/>
-      <c r="J12" s="226"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
+      <c r="J12" s="225"/>
       <c r="K12" s="138"/>
-      <c r="L12" s="226"/>
+      <c r="L12" s="225"/>
       <c r="M12" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -20183,7 +20201,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="129" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="H13" s="128" t="s">
         <v>29</v>
@@ -20197,19 +20215,19 @@
       <c r="K13" s="138"/>
       <c r="L13" s="130"/>
       <c r="M13" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -20246,19 +20264,19 @@
       <c r="K14" s="138"/>
       <c r="L14" s="107"/>
       <c r="M14" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="T14" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -20297,19 +20315,19 @@
       </c>
       <c r="L15" s="130"/>
       <c r="M15" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -20348,19 +20366,19 @@
       </c>
       <c r="L16" s="107"/>
       <c r="M16" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="T16" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -20397,22 +20415,22 @@
       </c>
       <c r="L17" s="130"/>
       <c r="M17" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -20451,22 +20469,22 @@
       </c>
       <c r="L18" s="107"/>
       <c r="M18" s="32" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="T18" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -20503,22 +20521,22 @@
       </c>
       <c r="L19" s="130"/>
       <c r="M19" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -20555,19 +20573,19 @@
       <c r="K20" s="106"/>
       <c r="L20" s="107"/>
       <c r="M20" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -20590,7 +20608,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="128" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="H21" s="128" t="s">
         <v>29</v>
@@ -20604,19 +20622,19 @@
       <c r="K21" s="131"/>
       <c r="L21" s="130"/>
       <c r="M21" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -20653,22 +20671,22 @@
       </c>
       <c r="L22" s="107"/>
       <c r="M22" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="O22" s="32" t="s">
         <v>724</v>
       </c>
-      <c r="N22" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="O22" s="32" t="s">
-        <v>734</v>
-      </c>
       <c r="S22" s="32" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="T22" s="32" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -20691,7 +20709,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="128" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="H23" s="128" t="s">
         <v>29</v>
@@ -20705,19 +20723,19 @@
       <c r="K23" s="211"/>
       <c r="L23" s="130"/>
       <c r="M23" s="32" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="T23" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -20756,22 +20774,22 @@
       </c>
       <c r="L24" s="107"/>
       <c r="M24" s="32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N24" s="32" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P24" s="32" t="b">
         <v>1</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="T24" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -21252,7 +21270,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21311,31 +21329,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="U1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -21370,19 +21388,19 @@
       <c r="K2" s="164"/>
       <c r="L2" s="107"/>
       <c r="M2" s="137" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" s="137" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S2" s="137" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="T2" s="137" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U2" s="137" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="128" x14ac:dyDescent="0.2">
@@ -21399,7 +21417,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="187" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="F3" s="166" t="s">
         <v>17</v>
@@ -21421,22 +21439,22 @@
       </c>
       <c r="L3" s="130"/>
       <c r="M3" s="137" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N3" s="137" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="Q3" s="84" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="T3" s="137" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U3" s="137" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="112" x14ac:dyDescent="0.2">
@@ -21475,19 +21493,19 @@
       </c>
       <c r="L4" s="107"/>
       <c r="M4" s="137" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N4" s="137" t="s">
+        <v>727</v>
+      </c>
+      <c r="S4" s="137" t="s">
+        <v>761</v>
+      </c>
+      <c r="T4" s="137" t="s">
         <v>742</v>
       </c>
-      <c r="S4" s="137" t="s">
-        <v>776</v>
-      </c>
-      <c r="T4" s="137" t="s">
-        <v>757</v>
-      </c>
       <c r="U4" s="137" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -21526,22 +21544,22 @@
       </c>
       <c r="L5" s="130"/>
       <c r="M5" s="137" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N5" s="137" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="P5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="S5" s="137" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="T5" s="137" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U5" s="137" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="80" x14ac:dyDescent="0.2">
@@ -21578,22 +21596,22 @@
       <c r="K6" s="164"/>
       <c r="L6" s="107"/>
       <c r="M6" s="137" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N6" s="137" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="P6" s="137" t="b">
         <v>1</v>
       </c>
       <c r="S6" s="137" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="T6" s="137" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="U6" s="137" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="128" x14ac:dyDescent="0.2">
@@ -21630,19 +21648,19 @@
       <c r="K7" s="164"/>
       <c r="L7" s="130"/>
       <c r="M7" s="137" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N7" s="137" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S7" s="137" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="T7" s="137" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U7" s="137" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -21681,19 +21699,19 @@
       </c>
       <c r="L8" s="107"/>
       <c r="M8" s="137" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N8" s="137" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S8" s="137" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="T8" s="137" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U8" s="137" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -21732,19 +21750,19 @@
       </c>
       <c r="L9" s="130"/>
       <c r="M9" s="137" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N9" s="137" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="S9" s="137" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="T9" s="137" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="U9" s="137" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -22423,9 +22441,9 @@
   </sheetPr>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22484,28 +22502,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="219" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="N1" s="219" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="O1" s="219" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="P1" s="219" t="s">
-        <v>737</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="219" t="s">
-        <v>738</v>
+        <v>889</v>
       </c>
       <c r="R1" s="219" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="S1" s="219" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="T1" s="219" t="s">
-        <v>741</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22544,19 +22562,19 @@
       </c>
       <c r="L2" s="137"/>
       <c r="M2" s="84" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N2" s="84" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R2" s="84" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="S2" s="84" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T2" s="84" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="112" x14ac:dyDescent="0.2">
@@ -22595,22 +22613,22 @@
       </c>
       <c r="L3" s="137"/>
       <c r="M3" s="84" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N3" s="84" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="R3" s="84" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="S3" s="84" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="T3" s="84" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="32" x14ac:dyDescent="0.2">
@@ -22649,19 +22667,19 @@
       </c>
       <c r="L4" s="137"/>
       <c r="M4" s="84" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N4" s="84" t="s">
+        <v>727</v>
+      </c>
+      <c r="R4" s="84" t="s">
+        <v>809</v>
+      </c>
+      <c r="S4" s="84" t="s">
         <v>742</v>
       </c>
-      <c r="R4" s="84" t="s">
-        <v>824</v>
-      </c>
-      <c r="S4" s="84" t="s">
-        <v>757</v>
-      </c>
       <c r="T4" s="84" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -23371,6 +23389,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff8ef391852eaca4511043a54bffd4a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201dd8b781da46d5daa37e3355db44fe" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -23613,28 +23652,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A23828-4FF7-4569-837D-B1B2C775409F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23651,23 +23688,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>